--- a/MovingAverageExample.xlsx
+++ b/MovingAverageExample.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26206"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biegertm\OneDrive - Starkey\Desktop\Toss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C6E6113-7799-4F55-81E4-F7CFF9E264DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{163495D1-2A4F-41C1-A644-2968B082D216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MovingAverage" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_B5">Sheet1!$B$5:$B$29</definedName>
+    <definedName name="datarange">Sheet1!$C$34:$C$58</definedName>
+    <definedName name="Summer">_xlfn.LAMBDA(_xlpm.datarange,_xlpm.numpoints,   _xlfn.LET(     _xlpm.runsum,_xlfn.SCAN(,_xlpm.datarange,_xlfn.LAMBDA(_xlpm.a,_xlpm.b,_xlpm.a+_xlpm.b)),     _xlfn.BYROW(       _xlfn.SEQUENCE(ROWS(_xlpm.datarange)),       _xlfn.LAMBDA(_xlpm.x,       IF(         _xlpm.x&lt;_xlpm.numpoints,         NA(),         (INDEX(_xlpm.runsum,_xlpm.x)-IF(_xlpm.x=_xlpm.numpoints,0,INDEX(_xlpm.runsum,_xlpm.x-_xlpm.numpoints)))         /_xlpm.numpoints)       )     )   ) )</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +60,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>Example Data Set</t>
+  </si>
   <si>
     <t>NumPoints</t>
   </si>
@@ -67,7 +74,16 @@
     <t>Mov Avg</t>
   </si>
   <si>
-    <t>Example Data Set</t>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>Manual Moving Average</t>
   </si>
   <si>
     <t>Sequence</t>
@@ -85,107 +101,68 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Manual Moving Average</t>
+    <t>Functional Version</t>
   </si>
   <si>
-    <t>Build a Formula</t>
+    <t>Put it into the Name Field</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Consolas"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Consolas"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF7030A0"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF101517"/>
-      <name val="Arial Unicode MS"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,18 +171,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -213,165 +184,98 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" hidden="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Intro_Hd" xfId="7" xr:uid="{84D0D410-758D-4384-B224-A500BAF57428}"/>
-    <cellStyle name="Linked Cell" xfId="9" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
-    <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor rgb="FFFDF5E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
-        <color theme="1"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="double">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="8" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="double">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
-        <color theme="1"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </horizontal>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{95D13D30-F7BE-4DDA-AEBD-7D087B643242}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -431,8 +335,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -441,15 +345,15 @@
             <c:v>Data</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -462,9 +366,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:yVal>
+          <c:val>
             <c:numRef>
-              <c:f>MovingAverage!$B$5:$B$29</c:f>
+              <c:f>Sheet1!$B$5:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -545,11 +449,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D0F0-4D80-A161-D21D6DA893A7}"/>
+              <c16:uniqueId val="{00000001-F802-4958-8597-06A97C6DCF68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -557,12 +461,20 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Moving Average</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mov Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -571,9 +483,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:yVal>
+          <c:val>
             <c:numRef>
-              <c:f>MovingAverage!$C$5:$C$29</c:f>
+              <c:f>Sheet1!$C$5:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -654,11 +566,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D0F0-4D80-A161-D21D6DA893A7}"/>
+              <c16:uniqueId val="{00000003-F802-4958-8597-06A97C6DCF68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -670,30 +582,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1524302575"/>
-        <c:axId val="1524302991"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1524302575"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="491898696"/>
+        <c:axId val="491903016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491898696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -702,8 +602,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -730,12 +630,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1524302991"/>
+        <c:crossAx val="491903016"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1524302991"/>
+        <c:axId val="491903016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,14 +664,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -792,9 +689,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1524302575"/>
+        <c:crossAx val="491898696"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -804,15 +701,39 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -889,7 +810,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -916,8 +837,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -997,6 +918,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1007,6 +933,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1018,7 +949,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1038,6 +969,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1050,10 +984,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1093,23 +1027,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1214,8 +1147,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1347,20 +1280,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1374,17 +1306,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1408,23 +1329,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321B09D0-DD9F-42CD-9176-431A36959777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7D2DC2-FB09-B4F2-2A6B-AF97092FCED1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,10 +1366,33 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{353D4B8D-A36D-4454-930D-A5CC5D8766D7}" name="Table1" displayName="Table1" ref="B4:C29" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="B4:C29" xr:uid="{353D4B8D-A36D-4454-930D-A5CC5D8766D7}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{33A51B66-1F1D-4AB4-9B60-8FF9D01ED368}" name="Data Range" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A7DA1F94-D213-4C0C-A040-1328FB95B01A}" name="Mov Avg" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{914A787B-00AE-4631-A7F3-5C6AE3D05842}" name="Table2" displayName="Table2" ref="N5:P8" totalsRowShown="0">
+  <autoFilter ref="N5:P8" xr:uid="{914A787B-00AE-4631-A7F3-5C6AE3D05842}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{21FAEB67-10D2-4646-8326-BE82A417FF7A}" name="Mark"/>
+    <tableColumn id="2" xr3:uid="{CD82C413-02C4-404E-ACBE-F03E7137F6ED}" name="Tim"/>
+    <tableColumn id="3" xr3:uid="{0D3D9292-6DD1-422E-892B-9239F9593CBC}" name="Pat"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Biegert_Standard">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Yellow Orange">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1456,87 +1400,221 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="4E3B30"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FBEEC9"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="F0A22E"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="A5644E"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="B58B80"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="C3986D"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A19574"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C17529"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="AD1F1F"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="FFC42F"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Biegert Standard">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Consolas"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Consolas"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Riblet">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="80000"/>
-            <a:satMod val="150000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="17145" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="58420" cap="flat" cmpd="thickThin" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:alpha val="50000"/>
-              <a:satMod val="150000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1544,40 +1622,16 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="60000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="flat" dir="tl"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="31750" h="63500" prst="riblet"/>
-          </a:sp3d>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="60000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="flat" dir="tl"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="57150" h="114300" prst="riblet"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1631,941 +1685,1360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB114D2F-F620-446A-92CE-0CB3C9FD0F74}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="N17" cm="1">
+        <f t="array" ref="N17:N19">_xlfn.BYROW(Table2[[Mark]:[Tim]],_xlfn.LAMBDA(_xlpm.row,MAX(_xlpm.row)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="N18">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="N19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C23" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5">
+      <c r="C29" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="e">
-        <f ca="1">IF(
-  COUNT(OFFSET($B5,0,0,-$C$2,1))=$C$2,
-  AVERAGE(OFFSET($B5,0,0,-$C$2,1)),
-  NA()
-)</f>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6">
+      <c r="F34" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G34" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
         <v>5</v>
       </c>
-      <c r="C6" t="e">
-        <f t="shared" ref="C6:C29" ca="1" si="0">IF(
-  COUNT(OFFSET($B6,0,0,-$C$2,1))=$C$2,
-  AVERAGE(OFFSET($B6,0,0,-$C$2,1)),
-  NA()
-)</f>
+      <c r="D35" s="3">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7">
+      <c r="F35" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G35" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
         <v>10</v>
       </c>
-      <c r="C7" t="e">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D36" s="3">
+        <v>23</v>
+      </c>
+      <c r="E36" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8">
+      <c r="F36" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G36" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
         <v>7</v>
       </c>
-      <c r="C8" t="e">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D37" s="3">
+        <v>30</v>
+      </c>
+      <c r="E37" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9">
+      <c r="F37" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G37" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
         <v>9</v>
       </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D38" s="3">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>39</v>
+      </c>
+      <c r="G38" s="2">
         <v>7.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="B10">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
         <v>7</v>
       </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D39" s="3">
+        <v>46</v>
+      </c>
+      <c r="E39" s="2">
+        <v>8</v>
+      </c>
+      <c r="F39" s="2">
+        <v>38</v>
+      </c>
+      <c r="G39" s="2">
         <v>7.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="B11">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
         <v>10</v>
       </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D40" s="3">
+        <v>56</v>
+      </c>
+      <c r="E40" s="2">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43</v>
+      </c>
+      <c r="G40" s="2">
         <v>8.6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="B12">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2">
         <v>9</v>
       </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D41" s="3">
+        <v>65</v>
+      </c>
+      <c r="E41" s="2">
+        <v>23</v>
+      </c>
+      <c r="F41" s="2">
+        <v>42</v>
+      </c>
+      <c r="G41" s="2">
         <v>8.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="B13">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2">
         <v>9</v>
       </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C42" s="2">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3">
+        <v>74</v>
+      </c>
+      <c r="E42" s="2">
+        <v>30</v>
+      </c>
+      <c r="F42" s="2">
+        <v>44</v>
+      </c>
+      <c r="G42" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2">
         <v>7</v>
       </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D43" s="3">
+        <v>81</v>
+      </c>
+      <c r="E43" s="2">
+        <v>39</v>
+      </c>
+      <c r="F43" s="2">
+        <v>42</v>
+      </c>
+      <c r="G43" s="2">
         <v>8.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="B15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2">
+        <v>11</v>
+      </c>
+      <c r="C44" s="2">
         <v>0</v>
       </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D44" s="3">
+        <v>81</v>
+      </c>
+      <c r="E44" s="2">
+        <v>46</v>
+      </c>
+      <c r="F44" s="2">
+        <v>35</v>
+      </c>
+      <c r="G44" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2">
         <v>6</v>
       </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D45" s="3">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2">
+        <v>56</v>
+      </c>
+      <c r="F45" s="2">
+        <v>31</v>
+      </c>
+      <c r="G45" s="2">
         <v>6.2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="B17">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2">
         <v>2</v>
       </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D46" s="3">
+        <v>89</v>
+      </c>
+      <c r="E46" s="2">
+        <v>65</v>
+      </c>
+      <c r="F46" s="2">
+        <v>24</v>
+      </c>
+      <c r="G46" s="2">
         <v>4.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="B18">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2">
+        <v>14</v>
+      </c>
+      <c r="C47" s="2">
         <v>0</v>
       </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D47" s="3">
+        <v>89</v>
+      </c>
+      <c r="E47" s="2">
+        <v>74</v>
+      </c>
+      <c r="F47" s="2">
+        <v>15</v>
+      </c>
+      <c r="G47" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="B19">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2">
+        <v>15</v>
+      </c>
+      <c r="C48" s="2">
         <v>8</v>
       </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D48" s="3">
+        <v>97</v>
+      </c>
+      <c r="E48" s="2">
+        <v>81</v>
+      </c>
+      <c r="F48" s="2">
+        <v>16</v>
+      </c>
+      <c r="G48" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="B20">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2">
         <v>5</v>
       </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D49" s="3">
+        <v>102</v>
+      </c>
+      <c r="E49" s="2">
+        <v>81</v>
+      </c>
+      <c r="F49" s="2">
+        <v>21</v>
+      </c>
+      <c r="G49" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="B21">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2">
+        <v>17</v>
+      </c>
+      <c r="C50" s="2">
         <v>2</v>
       </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D50" s="3">
+        <v>104</v>
+      </c>
+      <c r="E50" s="2">
+        <v>87</v>
+      </c>
+      <c r="F50" s="2">
+        <v>17</v>
+      </c>
+      <c r="G50" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2">
         <v>5</v>
       </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D51" s="3">
+        <v>109</v>
+      </c>
+      <c r="E51" s="2">
+        <v>89</v>
+      </c>
+      <c r="F51" s="2">
+        <v>20</v>
+      </c>
+      <c r="G51" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2">
+        <v>19</v>
+      </c>
+      <c r="C52" s="2">
         <v>1</v>
       </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D52" s="3">
+        <v>110</v>
+      </c>
+      <c r="E52" s="2">
+        <v>89</v>
+      </c>
+      <c r="F52" s="2">
+        <v>21</v>
+      </c>
+      <c r="G52" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2">
+        <v>20</v>
+      </c>
+      <c r="C53" s="2">
         <v>4</v>
       </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D53" s="3">
+        <v>114</v>
+      </c>
+      <c r="E53" s="2">
+        <v>97</v>
+      </c>
+      <c r="F53" s="2">
+        <v>17</v>
+      </c>
+      <c r="G53" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2">
+        <v>21</v>
+      </c>
+      <c r="C54" s="2">
         <v>10</v>
       </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D54" s="3">
+        <v>124</v>
+      </c>
+      <c r="E54" s="2">
+        <v>102</v>
+      </c>
+      <c r="F54" s="2">
+        <v>22</v>
+      </c>
+      <c r="G54" s="2">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2">
+        <v>22</v>
+      </c>
+      <c r="C55" s="2">
         <v>7</v>
       </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D55" s="3">
+        <v>131</v>
+      </c>
+      <c r="E55" s="2">
+        <v>104</v>
+      </c>
+      <c r="F55" s="2">
+        <v>27</v>
+      </c>
+      <c r="G55" s="2">
         <v>5.4</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2">
         <v>6</v>
       </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D56" s="3">
+        <v>137</v>
+      </c>
+      <c r="E56" s="2">
+        <v>109</v>
+      </c>
+      <c r="F56" s="2">
+        <v>28</v>
+      </c>
+      <c r="G56" s="2">
         <v>5.6</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2">
+        <v>24</v>
+      </c>
+      <c r="C57" s="2">
         <v>6</v>
       </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D57" s="3">
+        <v>143</v>
+      </c>
+      <c r="E57" s="2">
+        <v>110</v>
+      </c>
+      <c r="F57" s="2">
+        <v>33</v>
+      </c>
+      <c r="G57" s="2">
         <v>6.6</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="B29">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2">
+        <v>25</v>
+      </c>
+      <c r="C58" s="2">
         <v>2</v>
       </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D58" s="3">
+        <v>145</v>
+      </c>
+      <c r="E58" s="2">
+        <v>114</v>
+      </c>
+      <c r="F58" s="2">
+        <v>31</v>
+      </c>
+      <c r="G58" s="2">
         <v>6.2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.4">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2">
+        <v>124</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2">
+        <v>131</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <v>137</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2">
+        <v>143</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
+        <v>145</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="e" cm="1">
+        <f t="array" ref="B68:B92">_xlfn.LAMBDA(_xlpm.datarange,_xlpm.numpoints,
+  _xlfn.LET(
+    _xlpm.runsum,_xlfn.SCAN(,_xlpm.datarange,_xlfn.LAMBDA(_xlpm.a,_xlpm.b,_xlpm.a+_xlpm.b)),
+    _xlfn.BYROW(
+      _xlfn.SEQUENCE(ROWS(_xlpm.datarange)),
+      _xlfn.LAMBDA(_xlpm.x,
+      IF(
+        _xlpm.x&lt;_xlpm.numpoints,
+        NA(),
+        (INDEX(_xlpm.runsum,_xlpm.x)-IF(_xlpm.x=_xlpm.numpoints,0,INDEX(_xlpm.runsum,_xlpm.x-_xlpm.numpoints)))
+        /_xlpm.numpoints)
+      )
+    )
+  )
+)(B5:B29,$C$2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="e" cm="1">
+        <f t="array" ref="B96:B120">Summer(_B5,C2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106">
         <v>7</v>
       </c>
-      <c r="G33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2">
-        <f>SUM($C$34:C34)</f>
-        <v>8</v>
-      </c>
-      <c r="E34" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F34" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G34" t="e">
-        <f>F34/5</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35" s="2">
-        <f>SUM($C$34:C35)</f>
-        <v>13</v>
-      </c>
-      <c r="E35" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F35" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G35" t="e">
-        <f t="shared" ref="G35:G63" si="1">F35/5</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36">
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109">
         <v>3</v>
       </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="D36" s="2">
-        <f>SUM($C$34:C36)</f>
-        <v>23</v>
-      </c>
-      <c r="E36" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F36" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G36" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37">
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113">
         <v>4</v>
       </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-      <c r="D37" s="2">
-        <f>SUM($C$34:C37)</f>
-        <v>30</v>
-      </c>
-      <c r="E37" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F37" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G37" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2">
-        <f>SUM($C$34:C38)</f>
-        <v>39</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f>D38-E38</f>
-        <v>39</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2">
-        <f>SUM($C$34:C39)</f>
-        <v>46</v>
-      </c>
-      <c r="E39">
-        <v>8</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ref="F39:F63" si="2">D39-E39</f>
-        <v>38</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40" s="2">
-        <f>SUM($C$34:C40)</f>
-        <v>56</v>
-      </c>
-      <c r="E40">
-        <v>13</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2">
-        <f>SUM($C$34:C41)</f>
-        <v>65</v>
-      </c>
-      <c r="E41">
-        <v>23</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2">
-        <f>SUM($C$34:C42)</f>
-        <v>74</v>
-      </c>
-      <c r="E42">
-        <v>30</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43">
-        <v>10</v>
-      </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2">
-        <f>SUM($C$34:C43)</f>
-        <v>81</v>
-      </c>
-      <c r="E43">
-        <v>39</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44">
-        <v>11</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <f>SUM($C$34:C44)</f>
-        <v>81</v>
-      </c>
-      <c r="E44">
-        <v>46</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="D45" s="2">
-        <f>SUM($C$34:C45)</f>
-        <v>87</v>
-      </c>
-      <c r="E45">
-        <v>56</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46">
-        <v>13</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2">
-        <f>SUM($C$34:C46)</f>
-        <v>89</v>
-      </c>
-      <c r="E46">
-        <v>65</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47">
-        <v>14</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
-        <f>SUM($C$34:C47)</f>
-        <v>89</v>
-      </c>
-      <c r="E47">
-        <v>74</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48">
-        <v>15</v>
-      </c>
-      <c r="C48">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2">
-        <f>SUM($C$34:C48)</f>
-        <v>97</v>
-      </c>
-      <c r="E48">
-        <v>81</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49">
-        <v>16</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49" s="2">
-        <f>SUM($C$34:C49)</f>
-        <v>102</v>
-      </c>
-      <c r="E49">
-        <v>81</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50">
-        <v>17</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2">
-        <f>SUM($C$34:C50)</f>
-        <v>104</v>
-      </c>
-      <c r="E50">
-        <v>87</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51">
-        <v>18</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51" s="2">
-        <f>SUM($C$34:C51)</f>
-        <v>109</v>
-      </c>
-      <c r="E51">
-        <v>89</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52">
-        <v>19</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <f>SUM($C$34:C52)</f>
-        <v>110</v>
-      </c>
-      <c r="E52">
-        <v>89</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53">
-        <v>20</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53" s="2">
-        <f>SUM($C$34:C53)</f>
-        <v>114</v>
-      </c>
-      <c r="E53">
-        <v>97</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54">
-        <v>21</v>
-      </c>
-      <c r="C54">
-        <v>10</v>
-      </c>
-      <c r="D54" s="2">
-        <f>SUM($C$34:C54)</f>
-        <v>124</v>
-      </c>
-      <c r="E54">
-        <v>102</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55">
-        <v>22</v>
-      </c>
-      <c r="C55">
-        <v>7</v>
-      </c>
-      <c r="D55" s="2">
-        <f>SUM($C$34:C55)</f>
-        <v>131</v>
-      </c>
-      <c r="E55">
-        <v>104</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56">
-        <v>23</v>
-      </c>
-      <c r="C56">
-        <v>6</v>
-      </c>
-      <c r="D56" s="2">
-        <f>SUM($C$34:C56)</f>
-        <v>137</v>
-      </c>
-      <c r="E56">
-        <v>109</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57">
-        <v>24</v>
-      </c>
-      <c r="C57">
-        <v>6</v>
-      </c>
-      <c r="D57" s="2">
-        <f>SUM($C$34:C57)</f>
-        <v>143</v>
-      </c>
-      <c r="E57">
-        <v>110</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58">
-        <v>25</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2">
-        <f>SUM($C$34:C58)</f>
-        <v>145</v>
-      </c>
-      <c r="E58">
-        <v>114</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="E59">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="E60">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="E61">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="E62">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="E63">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.4">
-      <c r="A66" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="B68" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B68" ca="1">_xlfn.LET(
-  _xlpm.datarange,B34:B58,
-  BYROW(
-    _xlfn.SEQUENCE(ROWS(_xlpm.datarange)),
-    LAMBDA(x,INDEX(_xlpm.datarange,x))
-  )
-)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="B74" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>